--- a/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/4c metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F22567BB-DCCD-CF48-A61B-2272AB8E6A4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D296B82-5178-8245-B35C-E2754D695187}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="7880" windowWidth="19200" windowHeight="11520" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
+    <workbookView xWindow="3740" yWindow="5620" windowWidth="29860" windowHeight="13780" xr2:uid="{A522515E-7FE3-F04A-A034-7C6A42931E3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="80">
   <si>
     <t>libraryDate</t>
   </si>
@@ -189,13 +189,94 @@
   </si>
   <si>
     <t>Brent_small_2b-21_GTAC_37_TTTTGTC_unknown_SIC10_GCTTCTGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>08.29.19</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-10_GTAC_10_GGCAGCG_universal_S47_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-11_GTAC_11_CCATCAT_universal_S48_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-12_GTAC_12_TAACAAG_universal_S49_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-13_GTAC_13_GAGGCGT_universal_S50_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-14_GTAC_14_TTTAACT_universal_S51_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-15_GTAC_15_GGTCCTC_universal_S52_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-16_GTAC_16_CGGTGGC_universal_S53_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-17_GTAC_17_ACTGTCG_universal_S54_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-18_GTAC_18_GTATTTG_universal_S55_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-19_GTAC_19_GAGTACG_universal_S56_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-1_GTAC_1_TGAGGTT_universal_S38_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-20_GTAC_20_ACAGATA_universal_S57_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-21_GTAC_21_CTCAATG_universal_S58_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-2_GTAC_2_GCTTAGA_universal_S39_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-3_GTAC_3_ATGACAG_universal_S40_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-4_GTAC_4_CACCTCC_universal_S41_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-5_GTAC_5_ATCGAGC_universal_S42_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-6_GTAC_6_TACTCTA_universal_S43_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_large_3b-9_GTAC_9_CCGATTA_universal_S46_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3b-22_GTAC_22_AAATGCA_universal_S59_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3b-23_GTAC_23_ACGCGGG_universal_S60_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3b-24_GTAC_24_GGAGTCC_universal_S61_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3b-25_GTAC_25_CGTCGCT_universal_S62_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3b-26_GTAC_26_TCAACTG_universal_S63_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3b-7_GTAC_7_AGACTGA_universal_S44_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Brent_small_3b-8_GTAC_8_CTTGGAA_universal_S45_R1_001.fastq.gz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +319,17 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -259,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -277,6 +369,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,15 +686,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07CA217D-0C43-0B40-A462-5F05C8B33EE8}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L37"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="S33" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,9 +746,9 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -674,26 +769,26 @@
       <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6">
-        <v>14.2</v>
-      </c>
-      <c r="J2" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="K2" s="7">
-        <v>7448483</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>17</v>
+      <c r="I2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K2" s="9">
+        <v>5345784</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="11"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
@@ -701,9 +796,9 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -724,21 +819,35 @@
         <v>13</v>
       </c>
       <c r="I3">
-        <v>6.11</v>
-      </c>
-      <c r="J3">
-        <v>2.4</v>
-      </c>
-      <c r="K3">
-        <v>7223071</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
+        <v>24.5</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K3" s="9">
+        <v>7714663</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -759,21 +868,35 @@
         <v>13</v>
       </c>
       <c r="I4">
-        <v>98.4</v>
-      </c>
-      <c r="J4">
-        <v>1.4</v>
-      </c>
-      <c r="K4">
-        <v>7629664</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
+        <v>4.84</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="K4" s="9">
+        <v>7046644</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -794,21 +917,35 @@
         <v>13</v>
       </c>
       <c r="I5">
-        <v>52.7</v>
-      </c>
-      <c r="J5">
-        <v>1.3</v>
-      </c>
-      <c r="K5">
-        <v>7685812</v>
-      </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>14</v>
+        <v>2.66</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K5" s="9">
+        <v>7034731</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -829,21 +966,35 @@
         <v>13</v>
       </c>
       <c r="I6">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="J6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K6">
-        <v>13242118</v>
-      </c>
-      <c r="L6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
+        <v>10.6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="K6" s="9">
+        <v>7825166</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -864,21 +1015,35 @@
         <v>13</v>
       </c>
       <c r="I7">
-        <v>74.5</v>
-      </c>
-      <c r="J7">
-        <v>1.6</v>
-      </c>
-      <c r="K7">
-        <v>9343472</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
+        <v>3.86</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="K7" s="9">
+        <v>6552879</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -899,21 +1064,35 @@
         <v>13</v>
       </c>
       <c r="I8">
-        <v>0.53600000000000003</v>
-      </c>
-      <c r="J8">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K8">
-        <v>6624316</v>
-      </c>
-      <c r="L8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K8" s="9">
+        <v>2053073</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
@@ -934,21 +1113,35 @@
         <v>13</v>
       </c>
       <c r="I9">
-        <v>32.6</v>
-      </c>
-      <c r="J9">
-        <v>1.3</v>
-      </c>
-      <c r="K9">
-        <v>7561417</v>
-      </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="J9" s="2">
+        <v>8</v>
+      </c>
+      <c r="K9" s="9">
+        <v>1937568</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -969,21 +1162,35 @@
         <v>13</v>
       </c>
       <c r="I10">
-        <v>119</v>
-      </c>
-      <c r="J10">
-        <v>1.3</v>
-      </c>
-      <c r="K10">
-        <v>6870088</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K10" s="9">
+        <v>6561841</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1004,21 +1211,35 @@
         <v>13</v>
       </c>
       <c r="I11">
-        <v>64.7</v>
-      </c>
-      <c r="J11">
-        <v>1.3</v>
-      </c>
-      <c r="K11">
-        <v>7662319</v>
-      </c>
-      <c r="L11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>7328354</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -1039,21 +1260,34 @@
         <v>13</v>
       </c>
       <c r="I12">
-        <v>62.4</v>
-      </c>
-      <c r="J12">
-        <v>1.3</v>
-      </c>
-      <c r="K12">
-        <v>7439482</v>
-      </c>
-      <c r="L12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
+        <v>1.71</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3</v>
+      </c>
+      <c r="K12" s="9">
+        <v>12195819</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="10"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1074,21 +1308,34 @@
         <v>13</v>
       </c>
       <c r="I13">
-        <v>118</v>
-      </c>
-      <c r="J13">
-        <v>1.5</v>
-      </c>
-      <c r="K13">
-        <v>10101552</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
+        <v>14.2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K13" s="9">
+        <v>6692100</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="10"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
@@ -1109,21 +1356,34 @@
         <v>13</v>
       </c>
       <c r="I14">
-        <v>2.94</v>
-      </c>
-      <c r="J14">
-        <v>4</v>
-      </c>
-      <c r="K14">
-        <v>6505388</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
+        <v>2.38</v>
+      </c>
+      <c r="J14" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>7378046</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="10"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -1144,21 +1404,34 @@
         <v>13</v>
       </c>
       <c r="I15">
-        <v>5.9</v>
-      </c>
-      <c r="J15">
-        <v>1.9</v>
-      </c>
-      <c r="K15">
-        <v>7647217</v>
-      </c>
-      <c r="L15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
+        <v>4.09</v>
+      </c>
+      <c r="J15" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="K15" s="9">
+        <v>5666315</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="10"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1179,21 +1452,34 @@
         <v>13</v>
       </c>
       <c r="I16">
-        <v>30.6</v>
-      </c>
-      <c r="J16">
-        <v>0.9</v>
-      </c>
-      <c r="K16">
-        <v>10053278</v>
-      </c>
-      <c r="L16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>14</v>
+        <v>9.99</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="K16" s="9">
+        <v>8338282</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="10"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
@@ -1214,21 +1500,34 @@
         <v>13</v>
       </c>
       <c r="I17">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="J17">
-        <v>0.7</v>
-      </c>
-      <c r="K17">
-        <v>11103378</v>
-      </c>
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>14</v>
+        <v>25.4</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K17" s="9">
+        <v>6956488</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="10"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>15</v>
@@ -1249,21 +1548,34 @@
         <v>13</v>
       </c>
       <c r="I18">
-        <v>15.2</v>
-      </c>
-      <c r="J18">
-        <v>0.5</v>
-      </c>
-      <c r="K18">
-        <v>11065929</v>
-      </c>
-      <c r="L18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="K18" s="9">
+        <v>7228252</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="10"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
@@ -1284,21 +1596,34 @@
         <v>13</v>
       </c>
       <c r="I19">
-        <v>36.4</v>
-      </c>
-      <c r="J19">
-        <v>0.6</v>
-      </c>
-      <c r="K19">
-        <v>10505249</v>
-      </c>
-      <c r="L19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>14</v>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="9">
+        <v>7816199</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="10"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
@@ -1319,21 +1644,34 @@
         <v>13</v>
       </c>
       <c r="I20">
-        <v>12.9</v>
-      </c>
-      <c r="J20">
-        <v>1.8</v>
-      </c>
-      <c r="K20">
-        <v>6268198</v>
-      </c>
-      <c r="L20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
+        <v>21.3</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="K20" s="9">
+        <v>2592012</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="10"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -1354,21 +1692,35 @@
         <v>13</v>
       </c>
       <c r="I21">
-        <v>1.72</v>
-      </c>
-      <c r="J21">
-        <v>2.4</v>
-      </c>
-      <c r="K21">
-        <v>15624574</v>
-      </c>
-      <c r="L21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9">
+        <v>871010</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -1389,21 +1741,35 @@
         <v>13</v>
       </c>
       <c r="I22">
-        <v>2.78</v>
-      </c>
-      <c r="J22">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K22">
-        <v>8024782</v>
-      </c>
-      <c r="L22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>14</v>
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K22" s="9">
+        <v>1427380</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1424,21 +1790,35 @@
         <v>13</v>
       </c>
       <c r="I23">
-        <v>1.02</v>
-      </c>
-      <c r="J23">
-        <v>3.1</v>
-      </c>
-      <c r="K23">
-        <v>7189355</v>
-      </c>
-      <c r="L23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>14</v>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="9">
+        <v>2630938</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
@@ -1459,21 +1839,35 @@
         <v>13</v>
       </c>
       <c r="I24">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="J24">
-        <v>1.8</v>
-      </c>
-      <c r="K24">
-        <v>7583022</v>
-      </c>
-      <c r="L24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>14</v>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="9">
+        <v>2737460</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
@@ -1494,21 +1888,35 @@
         <v>13</v>
       </c>
       <c r="I25">
-        <v>2.19</v>
-      </c>
-      <c r="J25">
-        <v>5.4</v>
-      </c>
-      <c r="K25">
-        <v>6407970</v>
-      </c>
-      <c r="L25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>14</v>
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6</v>
+      </c>
+      <c r="K25" s="9">
+        <v>4452957</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="11"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
@@ -1529,21 +1937,35 @@
         <v>13</v>
       </c>
       <c r="I26">
-        <v>39</v>
-      </c>
-      <c r="J26">
-        <v>0.6</v>
-      </c>
-      <c r="K26">
-        <v>12530237</v>
-      </c>
-      <c r="L26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>14</v>
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="K26" s="9">
+        <v>9586974</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
@@ -1564,362 +1986,1396 @@
         <v>13</v>
       </c>
       <c r="I27">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J27" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K27" s="9">
+        <v>6720579</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="4">
+        <v>4040</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="6">
+        <v>14.2</v>
+      </c>
+      <c r="J28" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="K28" s="7">
+        <v>7448483</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>4040</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29">
+        <v>6.11</v>
+      </c>
+      <c r="J29">
+        <v>2.4</v>
+      </c>
+      <c r="K29">
+        <v>7223071</v>
+      </c>
+      <c r="L29" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>4040</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>98.4</v>
+      </c>
+      <c r="J30">
+        <v>1.4</v>
+      </c>
+      <c r="K30">
+        <v>7629664</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4040</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31">
+        <v>52.7</v>
+      </c>
+      <c r="J31">
+        <v>1.3</v>
+      </c>
+      <c r="K31">
+        <v>7685812</v>
+      </c>
+      <c r="L31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>4040</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+      <c r="I32">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="J32">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K32">
+        <v>13242118</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>4040</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I33">
+        <v>74.5</v>
+      </c>
+      <c r="J33">
+        <v>1.6</v>
+      </c>
+      <c r="K33">
+        <v>9343472</v>
+      </c>
+      <c r="L33" t="s">
+        <v>22</v>
+      </c>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>4040</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="J34">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K34">
+        <v>6624316</v>
+      </c>
+      <c r="L34" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>4040</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35">
+        <v>32.6</v>
+      </c>
+      <c r="J35">
+        <v>1.3</v>
+      </c>
+      <c r="K35">
+        <v>7561417</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="11"/>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>4040</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36">
+        <v>119</v>
+      </c>
+      <c r="J36">
+        <v>1.3</v>
+      </c>
+      <c r="K36">
+        <v>6870088</v>
+      </c>
+      <c r="L36" t="s">
+        <v>25</v>
+      </c>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>4040</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37">
+        <v>64.7</v>
+      </c>
+      <c r="J37">
+        <v>1.3</v>
+      </c>
+      <c r="K37">
+        <v>7662319</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>4040</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>62.4</v>
+      </c>
+      <c r="J38">
+        <v>1.3</v>
+      </c>
+      <c r="K38">
+        <v>7439482</v>
+      </c>
+      <c r="L38" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>4040</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>118</v>
+      </c>
+      <c r="J39">
+        <v>1.5</v>
+      </c>
+      <c r="K39">
+        <v>10101552</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>4040</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40">
+        <v>2.94</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>6505388</v>
+      </c>
+      <c r="L40" t="s">
+        <v>29</v>
+      </c>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="11"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>4040</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41">
+        <v>5.9</v>
+      </c>
+      <c r="J41">
+        <v>1.9</v>
+      </c>
+      <c r="K41">
+        <v>7647217</v>
+      </c>
+      <c r="L41" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="11"/>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4040</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42">
+        <v>30.6</v>
+      </c>
+      <c r="J42">
+        <v>0.9</v>
+      </c>
+      <c r="K42">
+        <v>10053278</v>
+      </c>
+      <c r="L42" t="s">
+        <v>31</v>
+      </c>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>4040</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+      <c r="I43">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J43">
+        <v>0.7</v>
+      </c>
+      <c r="K43">
+        <v>11103378</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="11"/>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>17</v>
+      </c>
+      <c r="D44">
+        <v>4040</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44">
+        <v>15.2</v>
+      </c>
+      <c r="J44">
+        <v>0.5</v>
+      </c>
+      <c r="K44">
+        <v>11065929</v>
+      </c>
+      <c r="L44" t="s">
+        <v>33</v>
+      </c>
+      <c r="R44" s="10"/>
+      <c r="T44" s="11"/>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>4040</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>16</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I45">
+        <v>36.4</v>
+      </c>
+      <c r="J45">
+        <v>0.6</v>
+      </c>
+      <c r="K45">
+        <v>10505249</v>
+      </c>
+      <c r="L45" t="s">
+        <v>34</v>
+      </c>
+      <c r="R45" s="10"/>
+      <c r="T45" s="11"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>4040</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46">
+        <v>12.9</v>
+      </c>
+      <c r="J46">
+        <v>1.8</v>
+      </c>
+      <c r="K46">
+        <v>6268198</v>
+      </c>
+      <c r="L46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R46" s="10"/>
+      <c r="T46" s="11"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <v>20</v>
+      </c>
+      <c r="D47">
+        <v>4040</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47">
+        <v>1.72</v>
+      </c>
+      <c r="J47">
+        <v>2.4</v>
+      </c>
+      <c r="K47">
+        <v>15624574</v>
+      </c>
+      <c r="L47" t="s">
+        <v>36</v>
+      </c>
+      <c r="R47" s="10"/>
+      <c r="T47" s="11"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>4040</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>2.78</v>
+      </c>
+      <c r="J48">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K48">
+        <v>8024782</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+      <c r="R48" s="10"/>
+      <c r="T48" s="11"/>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>4040</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+      <c r="I49">
+        <v>1.02</v>
+      </c>
+      <c r="J49">
+        <v>3.1</v>
+      </c>
+      <c r="K49">
+        <v>7189355</v>
+      </c>
+      <c r="L49" t="s">
+        <v>38</v>
+      </c>
+      <c r="R49" s="10"/>
+      <c r="T49" s="11"/>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>23</v>
+      </c>
+      <c r="D50">
+        <v>4040</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="J50">
+        <v>1.8</v>
+      </c>
+      <c r="K50">
+        <v>7583022</v>
+      </c>
+      <c r="L50" t="s">
+        <v>39</v>
+      </c>
+      <c r="R50" s="10"/>
+      <c r="T50" s="11"/>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51">
+        <v>4040</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51">
+        <v>2.19</v>
+      </c>
+      <c r="J51">
+        <v>5.4</v>
+      </c>
+      <c r="K51">
+        <v>6407970</v>
+      </c>
+      <c r="L51" t="s">
+        <v>40</v>
+      </c>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="11"/>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52">
+        <v>4040</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52">
+        <v>39</v>
+      </c>
+      <c r="J52">
+        <v>0.6</v>
+      </c>
+      <c r="K52">
+        <v>12530237</v>
+      </c>
+      <c r="L52" t="s">
+        <v>41</v>
+      </c>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="11"/>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>4040</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53">
         <v>1.47</v>
       </c>
-      <c r="J27">
+      <c r="J53">
         <v>7.9</v>
       </c>
-      <c r="K27">
+      <c r="K53">
         <v>6834266</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L53" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28">
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="11"/>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
         <v>27</v>
       </c>
-      <c r="D28">
-        <v>4040</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28">
+      <c r="D54">
+        <v>4040</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54">
         <v>0.35599999999999998</v>
       </c>
-      <c r="J28">
+      <c r="J54">
         <v>5</v>
       </c>
-      <c r="K28">
+      <c r="K54">
         <v>5100647</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L54" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29">
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="11"/>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
         <v>28</v>
       </c>
-      <c r="D29">
-        <v>4040</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29">
+      <c r="D55">
+        <v>4040</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+      <c r="I55">
         <v>0.17199999999999999</v>
       </c>
-      <c r="J29">
+      <c r="J55">
         <v>5</v>
       </c>
-      <c r="K29">
+      <c r="K55">
         <v>1016511</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L55" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30">
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="11"/>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
         <v>29</v>
       </c>
-      <c r="D30">
-        <v>4040</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30">
+      <c r="D56">
+        <v>4040</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56">
         <v>0.27800000000000002</v>
       </c>
-      <c r="J30">
+      <c r="J56">
         <v>5</v>
       </c>
-      <c r="K30">
+      <c r="K56">
         <v>4416700</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L56" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31">
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="11"/>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
         <v>30</v>
       </c>
-      <c r="D31">
-        <v>4040</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31">
+      <c r="D57">
+        <v>4040</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J31">
+      <c r="J57">
         <v>2.5</v>
       </c>
-      <c r="K31">
+      <c r="K57">
         <v>14197993</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L57" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32">
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="11"/>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
         <v>31</v>
       </c>
-      <c r="D32">
-        <v>4040</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32">
+      <c r="D58">
+        <v>4040</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58">
         <v>3.09</v>
       </c>
-      <c r="J32">
+      <c r="J58">
         <v>1.5</v>
       </c>
-      <c r="K32">
+      <c r="K58">
         <v>9590075</v>
       </c>
-      <c r="L32" t="s">
+      <c r="L58" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33">
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="11"/>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
         <v>33</v>
       </c>
-      <c r="D33">
-        <v>4040</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33">
+      <c r="D59">
+        <v>4040</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59">
         <v>1.21</v>
       </c>
-      <c r="J33">
+      <c r="J59">
         <v>3.3</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L59" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34">
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="11"/>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
         <v>34</v>
       </c>
-      <c r="D34">
-        <v>4040</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34">
+      <c r="D60">
+        <v>4040</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60">
         <v>1.54</v>
       </c>
-      <c r="J34">
+      <c r="J60">
         <v>1.3</v>
       </c>
-      <c r="K34">
+      <c r="K60">
         <v>8620518</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L60" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35">
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="11"/>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
         <v>35</v>
       </c>
-      <c r="D35">
-        <v>4040</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35">
+      <c r="D61">
+        <v>4040</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+      <c r="I61">
         <v>0.41</v>
       </c>
-      <c r="J35">
+      <c r="J61">
         <v>5</v>
       </c>
-      <c r="K35">
+      <c r="K61">
         <v>11521939</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L61" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36">
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="11"/>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
         <v>36</v>
       </c>
-      <c r="D36">
-        <v>4040</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36">
+      <c r="D62">
+        <v>4040</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62">
         <v>0.45</v>
       </c>
-      <c r="J36">
+      <c r="J62">
         <v>5</v>
       </c>
-      <c r="K36">
+      <c r="K62">
         <v>325607</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L62" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37">
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="11"/>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63">
         <v>37</v>
       </c>
-      <c r="D37">
-        <v>4040</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37">
+      <c r="D63">
+        <v>4040</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+      <c r="I63">
         <v>0.56399999999999995</v>
       </c>
-      <c r="J37">
+      <c r="J63">
         <v>5</v>
       </c>
-      <c r="K37">
+      <c r="K63">
         <v>958111</v>
       </c>
-      <c r="L37" t="s">
+      <c r="L63" t="s">
         <v>52</v>
       </c>
     </row>

--- a/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623DCE3B-FBFF-7546-B93E-0D984E19845C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF47F32-A90A-8946-9D8C-83EA53E89341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF47F32-A90A-8946-9D8C-83EA53E89341}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B9CDE5-7808-2C42-96E5-1114CAC2E289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="79">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>runNumber</t>
-  </si>
-  <si>
-    <t>laneNumber</t>
   </si>
   <si>
     <t>sequencerModel</t>
@@ -665,20 +662,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z63"/>
+  <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="1025" width="10.6640625" customWidth="1"/>
+    <col min="1" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="1024" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,21 +697,19 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -728,14 +723,13 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -743,49 +737,48 @@
       <c r="D2">
         <v>4040</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J2">
+        <v>5345784</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="K2">
-        <v>5345784</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -793,48 +786,48 @@
       <c r="D3">
         <v>4040</v>
       </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
+      <c r="H3">
         <v>24.5</v>
       </c>
-      <c r="J3" s="2">
+      <c r="I3" s="2">
         <v>1.8</v>
       </c>
-      <c r="K3">
+      <c r="J3">
         <v>7714663</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="K3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -842,48 +835,48 @@
       <c r="D4">
         <v>4040</v>
       </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
+      <c r="H4">
         <v>4.84</v>
       </c>
-      <c r="J4" s="2">
+      <c r="I4" s="2">
         <v>2.6</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <v>7046644</v>
       </c>
-      <c r="L4" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="K4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -891,48 +884,48 @@
       <c r="D5">
         <v>4040</v>
       </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
+      <c r="H5">
         <v>2.66</v>
       </c>
-      <c r="J5" s="2">
+      <c r="I5" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <v>7034731</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -940,48 +933,48 @@
       <c r="D6">
         <v>4040</v>
       </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
+      <c r="H6">
         <v>10.6</v>
       </c>
-      <c r="J6" s="2">
+      <c r="I6" s="2">
         <v>4.7</v>
       </c>
-      <c r="K6">
+      <c r="J6">
         <v>7825166</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="K6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -989,48 +982,48 @@
       <c r="D7">
         <v>4040</v>
       </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="H7">
         <v>3.86</v>
       </c>
-      <c r="J7" s="2">
+      <c r="I7" s="2">
         <v>3.2</v>
       </c>
-      <c r="K7">
+      <c r="J7">
         <v>6552879</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1038,48 +1031,48 @@
       <c r="D8">
         <v>4040</v>
       </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8">
+      <c r="H8">
         <v>0.77100000000000002</v>
       </c>
-      <c r="J8" s="2">
+      <c r="I8" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K8">
+      <c r="J8">
         <v>2053073</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1087,48 +1080,48 @@
       <c r="D9">
         <v>4040</v>
       </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" t="s">
         <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9">
+      <c r="H9">
         <v>0.72899999999999998</v>
       </c>
-      <c r="J9" s="2">
+      <c r="I9" s="2">
         <v>8</v>
       </c>
-      <c r="K9">
+      <c r="J9">
         <v>1937568</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="K9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1136,48 +1129,48 @@
       <c r="D10">
         <v>4040</v>
       </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10">
+      <c r="H10">
         <v>39.200000000000003</v>
       </c>
-      <c r="J10" s="2">
+      <c r="I10" s="2">
         <v>1.8</v>
       </c>
-      <c r="K10">
+      <c r="J10">
         <v>6561841</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="K10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1185,48 +1178,48 @@
       <c r="D11">
         <v>4040</v>
       </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11">
+      <c r="H11">
         <v>47</v>
       </c>
-      <c r="J11" s="2">
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="J11">
         <v>7328354</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="K11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1234,47 +1227,47 @@
       <c r="D12">
         <v>4040</v>
       </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
+      <c r="H12">
         <v>1.71</v>
       </c>
-      <c r="J12" s="2">
+      <c r="I12" s="2">
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="J12">
         <v>12195819</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="K12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="6"/>
-      <c r="T12" s="7"/>
+      <c r="Q12" s="6"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1282,47 +1275,47 @@
       <c r="D13">
         <v>4040</v>
       </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13">
+      <c r="H13">
         <v>14.2</v>
       </c>
-      <c r="J13" s="2">
+      <c r="I13" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K13">
+      <c r="J13">
         <v>6692100</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="K13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="6"/>
-      <c r="T13" s="7"/>
+      <c r="Q13" s="6"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1330,47 +1323,47 @@
       <c r="D14">
         <v>4040</v>
       </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
       <c r="F14" t="s">
         <v>14</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
       </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14">
+      <c r="H14">
         <v>2.38</v>
       </c>
-      <c r="J14" s="2">
+      <c r="I14" s="2">
         <v>7.2</v>
       </c>
-      <c r="K14">
+      <c r="J14">
         <v>7378046</v>
       </c>
-      <c r="L14" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="K14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="6"/>
-      <c r="T14" s="7"/>
+      <c r="Q14" s="6"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1378,47 +1371,47 @@
       <c r="D15">
         <v>4040</v>
       </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15">
+      <c r="H15">
         <v>4.09</v>
       </c>
-      <c r="J15" s="2">
+      <c r="I15" s="2">
         <v>4.2</v>
       </c>
-      <c r="K15">
+      <c r="J15">
         <v>5666315</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="K15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="6"/>
-      <c r="T15" s="7"/>
+      <c r="Q15" s="6"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1426,47 +1419,47 @@
       <c r="D16">
         <v>4040</v>
       </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
       <c r="F16" t="s">
         <v>14</v>
       </c>
       <c r="G16" t="s">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16">
+      <c r="H16">
         <v>9.99</v>
       </c>
-      <c r="J16" s="2">
+      <c r="I16" s="2">
         <v>1.6</v>
       </c>
-      <c r="K16">
+      <c r="J16">
         <v>8338282</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="K16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="6"/>
-      <c r="T16" s="7"/>
+      <c r="Q16" s="6"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1474,47 +1467,47 @@
       <c r="D17">
         <v>4040</v>
       </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
       <c r="F17" t="s">
         <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
       </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17">
+      <c r="H17">
         <v>25.4</v>
       </c>
-      <c r="J17" s="2">
+      <c r="I17" s="2">
         <v>1.8</v>
       </c>
-      <c r="K17">
+      <c r="J17">
         <v>6956488</v>
       </c>
-      <c r="L17" s="6" t="s">
-        <v>32</v>
-      </c>
+      <c r="K17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="6"/>
-      <c r="T17" s="7"/>
+      <c r="Q17" s="6"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1522,47 +1515,47 @@
       <c r="D18">
         <v>4040</v>
       </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
       <c r="F18" t="s">
         <v>14</v>
       </c>
       <c r="G18" t="s">
         <v>15</v>
       </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18">
+      <c r="H18">
         <v>17</v>
       </c>
-      <c r="J18" s="2">
+      <c r="I18" s="2">
         <v>1.3</v>
       </c>
-      <c r="K18">
+      <c r="J18">
         <v>7228252</v>
       </c>
-      <c r="L18" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="6"/>
-      <c r="T18" s="7"/>
+      <c r="Q18" s="6"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1570,47 +1563,47 @@
       <c r="D19">
         <v>4040</v>
       </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
       </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19">
+      <c r="H19">
         <v>4.1500000000000004</v>
       </c>
-      <c r="J19" s="2">
+      <c r="I19" s="2">
         <v>0.8</v>
       </c>
-      <c r="K19">
+      <c r="J19">
         <v>7816199</v>
       </c>
-      <c r="L19" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="K19" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="6"/>
-      <c r="T19" s="7"/>
+      <c r="Q19" s="6"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1618,47 +1611,47 @@
       <c r="D20">
         <v>4040</v>
       </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
       <c r="F20" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
         <v>15</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20">
+      <c r="H20">
         <v>21.3</v>
       </c>
-      <c r="J20" s="2">
+      <c r="I20" s="2">
         <v>5.3</v>
       </c>
-      <c r="K20">
+      <c r="J20">
         <v>2592012</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="K20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="6"/>
-      <c r="T20" s="7"/>
+      <c r="Q20" s="6"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1666,48 +1659,48 @@
       <c r="D21">
         <v>4040</v>
       </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
       <c r="F21" t="s">
         <v>14</v>
       </c>
       <c r="G21" t="s">
         <v>15</v>
       </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21">
+      <c r="H21">
         <v>17.899999999999999</v>
       </c>
-      <c r="J21" s="2">
+      <c r="I21" s="2">
         <v>1</v>
       </c>
-      <c r="K21">
+      <c r="J21">
         <v>871010</v>
       </c>
-      <c r="L21" s="6" t="s">
-        <v>36</v>
-      </c>
+      <c r="K21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
+      <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1715,48 +1708,48 @@
       <c r="D22">
         <v>4040</v>
       </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
         <v>15</v>
       </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22">
+      <c r="H22">
         <v>4.3899999999999997</v>
       </c>
-      <c r="J22" s="2">
+      <c r="I22" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K22">
+      <c r="J22">
         <v>1427380</v>
       </c>
-      <c r="L22" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="K22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1764,48 +1757,48 @@
       <c r="D23">
         <v>4040</v>
       </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" t="s">
         <v>15</v>
       </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23">
+      <c r="H23">
         <v>0.52100000000000002</v>
       </c>
-      <c r="J23" s="2">
+      <c r="I23" s="2">
         <v>5</v>
       </c>
-      <c r="K23">
+      <c r="J23">
         <v>2630938</v>
       </c>
-      <c r="L23" s="6" t="s">
-        <v>38</v>
-      </c>
+      <c r="K23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1813,48 +1806,48 @@
       <c r="D24">
         <v>4040</v>
       </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
       <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
         <v>15</v>
       </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24">
+      <c r="H24">
         <v>0.93799999999999994</v>
       </c>
-      <c r="J24" s="2">
+      <c r="I24" s="2">
         <v>5</v>
       </c>
-      <c r="K24">
+      <c r="J24">
         <v>2737460</v>
       </c>
-      <c r="L24" s="6" t="s">
-        <v>39</v>
-      </c>
+      <c r="K24" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1862,48 +1855,48 @@
       <c r="D25">
         <v>4040</v>
       </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" t="s">
         <v>15</v>
       </c>
-      <c r="H25" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25">
+      <c r="H25">
         <v>0.40400000000000003</v>
       </c>
-      <c r="J25" s="2">
+      <c r="I25" s="2">
         <v>6</v>
       </c>
-      <c r="K25">
+      <c r="J25">
         <v>4452957</v>
       </c>
-      <c r="L25" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="K25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1911,48 +1904,48 @@
       <c r="D26">
         <v>4040</v>
       </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
       <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" t="s">
         <v>15</v>
       </c>
-      <c r="H26" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26">
+      <c r="H26">
         <v>0.51700000000000002</v>
       </c>
-      <c r="J26" s="2">
+      <c r="I26" s="2">
         <v>0.9</v>
       </c>
-      <c r="K26">
+      <c r="J26">
         <v>9586974</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="K26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
+      <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1960,48 +1953,48 @@
       <c r="D27">
         <v>4040</v>
       </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
       <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27">
+      <c r="H27">
         <v>0.63200000000000001</v>
       </c>
-      <c r="J27" s="2">
+      <c r="I27" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K27">
+      <c r="J27">
         <v>6720579</v>
       </c>
-      <c r="L27" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="K27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+      <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2009,49 +2002,48 @@
       <c r="D28" s="8">
         <v>4040</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>16</v>
+      <c r="H28" s="9">
+        <v>14.2</v>
       </c>
       <c r="I28" s="9">
-        <v>14.2</v>
-      </c>
-      <c r="J28" s="9">
         <v>2.5</v>
       </c>
-      <c r="K28">
+      <c r="J28">
         <v>7448483</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="K28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+      <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2059,37 +2051,37 @@
       <c r="D29">
         <v>4040</v>
       </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
+      <c r="H29">
+        <v>6.11</v>
       </c>
       <c r="I29">
-        <v>6.11</v>
+        <v>2.4</v>
       </c>
       <c r="J29">
-        <v>2.4</v>
-      </c>
-      <c r="K29">
         <v>7223071</v>
       </c>
-      <c r="L29" t="s">
-        <v>45</v>
-      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="7"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="S29" s="7"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2097,37 +2089,37 @@
       <c r="D30">
         <v>4040</v>
       </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
       <c r="F30" t="s">
         <v>14</v>
       </c>
       <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" t="s">
-        <v>16</v>
+      <c r="H30">
+        <v>98.4</v>
       </c>
       <c r="I30">
-        <v>98.4</v>
+        <v>1.4</v>
       </c>
       <c r="J30">
-        <v>1.4</v>
-      </c>
-      <c r="K30">
         <v>7629664</v>
       </c>
-      <c r="L30" t="s">
-        <v>46</v>
-      </c>
+      <c r="K30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="7"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="S30" s="7"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2135,37 +2127,37 @@
       <c r="D31">
         <v>4040</v>
       </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
       <c r="F31" t="s">
         <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
+      <c r="H31">
+        <v>52.7</v>
       </c>
       <c r="I31">
-        <v>52.7</v>
+        <v>1.3</v>
       </c>
       <c r="J31">
-        <v>1.3</v>
-      </c>
-      <c r="K31">
         <v>7685812</v>
       </c>
-      <c r="L31" t="s">
-        <v>47</v>
-      </c>
+      <c r="K31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="7"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="S31" s="7"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2173,37 +2165,37 @@
       <c r="D32">
         <v>4040</v>
       </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" t="s">
         <v>14</v>
       </c>
       <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
-        <v>16</v>
+      <c r="H32">
+        <v>72.599999999999994</v>
       </c>
       <c r="I32">
-        <v>72.599999999999994</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J32">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K32">
         <v>13242118</v>
       </c>
-      <c r="L32" t="s">
-        <v>48</v>
-      </c>
+      <c r="K32" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="7"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S32" s="7"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -2211,37 +2203,37 @@
       <c r="D33">
         <v>4040</v>
       </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="H33" t="s">
-        <v>16</v>
+      <c r="H33">
+        <v>74.5</v>
       </c>
       <c r="I33">
-        <v>74.5</v>
+        <v>1.6</v>
       </c>
       <c r="J33">
-        <v>1.6</v>
-      </c>
-      <c r="K33">
         <v>9343472</v>
       </c>
-      <c r="L33" t="s">
-        <v>49</v>
-      </c>
+      <c r="K33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="7"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -2249,37 +2241,37 @@
       <c r="D34">
         <v>4040</v>
       </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="H34" t="s">
-        <v>16</v>
+      <c r="H34">
+        <v>0.53600000000000003</v>
       </c>
       <c r="I34">
-        <v>0.53600000000000003</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J34">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K34">
         <v>6624316</v>
       </c>
-      <c r="L34" t="s">
-        <v>50</v>
-      </c>
+      <c r="K34" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="7"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S34" s="7"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -2287,37 +2279,37 @@
       <c r="D35">
         <v>4040</v>
       </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
       <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="H35" t="s">
-        <v>16</v>
+      <c r="H35">
+        <v>32.6</v>
       </c>
       <c r="I35">
-        <v>32.6</v>
+        <v>1.3</v>
       </c>
       <c r="J35">
-        <v>1.3</v>
-      </c>
-      <c r="K35">
         <v>7561417</v>
       </c>
-      <c r="L35" t="s">
-        <v>51</v>
-      </c>
+      <c r="K35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="7"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S35" s="7"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -2325,37 +2317,37 @@
       <c r="D36">
         <v>4040</v>
       </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
       <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="s">
-        <v>16</v>
+      <c r="H36">
+        <v>119</v>
       </c>
       <c r="I36">
-        <v>119</v>
+        <v>1.3</v>
       </c>
       <c r="J36">
-        <v>1.3</v>
-      </c>
-      <c r="K36">
         <v>6870088</v>
       </c>
-      <c r="L36" t="s">
-        <v>52</v>
-      </c>
+      <c r="K36" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="7"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S36" s="7"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2363,37 +2355,37 @@
       <c r="D37">
         <v>4040</v>
       </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
       <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" t="s">
         <v>15</v>
       </c>
-      <c r="H37" t="s">
-        <v>16</v>
+      <c r="H37">
+        <v>64.7</v>
       </c>
       <c r="I37">
-        <v>64.7</v>
+        <v>1.3</v>
       </c>
       <c r="J37">
-        <v>1.3</v>
-      </c>
-      <c r="K37">
         <v>7662319</v>
       </c>
-      <c r="L37" t="s">
-        <v>53</v>
-      </c>
+      <c r="K37" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="7"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S37" s="7"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -2401,189 +2393,189 @@
       <c r="D38">
         <v>4040</v>
       </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
       <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="H38" t="s">
-        <v>16</v>
+      <c r="H38">
+        <v>62.4</v>
       </c>
       <c r="I38">
-        <v>62.4</v>
+        <v>1.3</v>
       </c>
       <c r="J38">
-        <v>1.3</v>
-      </c>
-      <c r="K38">
         <v>7439482</v>
       </c>
-      <c r="L38" t="s">
+      <c r="K38" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="7"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>4040</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>118</v>
+      </c>
+      <c r="I39">
+        <v>1.5</v>
+      </c>
+      <c r="J39">
+        <v>10101552</v>
+      </c>
+      <c r="K39" t="s">
         <v>54</v>
       </c>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="7"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39">
-        <v>12</v>
-      </c>
-      <c r="D39">
-        <v>4040</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39">
-        <v>118</v>
-      </c>
-      <c r="J39">
-        <v>1.5</v>
-      </c>
-      <c r="K39">
-        <v>10101552</v>
-      </c>
-      <c r="L39" t="s">
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="7"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>4040</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>2.94</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40">
+        <v>6505388</v>
+      </c>
+      <c r="K40" t="s">
         <v>55</v>
       </c>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="7"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40">
-        <v>13</v>
-      </c>
-      <c r="D40">
-        <v>4040</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40">
-        <v>2.94</v>
-      </c>
-      <c r="J40">
-        <v>4</v>
-      </c>
-      <c r="K40">
-        <v>6505388</v>
-      </c>
-      <c r="L40" t="s">
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>4040</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>5.9</v>
+      </c>
+      <c r="I41">
+        <v>1.9</v>
+      </c>
+      <c r="J41">
+        <v>7647217</v>
+      </c>
+      <c r="K41" t="s">
         <v>56</v>
       </c>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="7"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41">
-        <v>14</v>
-      </c>
-      <c r="D41">
-        <v>4040</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41">
-        <v>5.9</v>
-      </c>
-      <c r="J41">
-        <v>1.9</v>
-      </c>
-      <c r="K41">
-        <v>7647217</v>
-      </c>
-      <c r="L41" t="s">
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="7"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>4040</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>30.6</v>
+      </c>
+      <c r="I42">
+        <v>0.9</v>
+      </c>
+      <c r="J42">
+        <v>10053278</v>
+      </c>
+      <c r="K42" t="s">
         <v>57</v>
       </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="7"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42">
-        <v>15</v>
-      </c>
-      <c r="D42">
-        <v>4040</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42">
-        <v>30.6</v>
-      </c>
-      <c r="J42">
-        <v>0.9</v>
-      </c>
-      <c r="K42">
-        <v>10053278</v>
-      </c>
-      <c r="L42" t="s">
-        <v>58</v>
-      </c>
+      <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="7"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S42" s="7"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2591,37 +2583,37 @@
       <c r="D43">
         <v>4040</v>
       </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
       <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" t="s">
         <v>15</v>
       </c>
-      <c r="H43" t="s">
-        <v>16</v>
+      <c r="H43">
+        <v>33.200000000000003</v>
       </c>
       <c r="I43">
-        <v>33.200000000000003</v>
+        <v>0.7</v>
       </c>
       <c r="J43">
-        <v>0.7</v>
-      </c>
-      <c r="K43">
         <v>11103378</v>
       </c>
-      <c r="L43" t="s">
-        <v>59</v>
-      </c>
+      <c r="K43" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="7"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S43" s="7"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -2629,36 +2621,36 @@
       <c r="D44">
         <v>4040</v>
       </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" t="s">
         <v>15</v>
       </c>
-      <c r="H44" t="s">
-        <v>16</v>
+      <c r="H44">
+        <v>15.2</v>
       </c>
       <c r="I44">
-        <v>15.2</v>
+        <v>0.5</v>
       </c>
       <c r="J44">
-        <v>0.5</v>
-      </c>
-      <c r="K44">
         <v>11065929</v>
       </c>
-      <c r="L44" t="s">
-        <v>60</v>
-      </c>
-      <c r="R44" s="6"/>
-      <c r="T44" s="7"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q44" s="6"/>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -2666,36 +2658,36 @@
       <c r="D45">
         <v>4040</v>
       </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
       <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" t="s">
         <v>15</v>
       </c>
-      <c r="H45" t="s">
-        <v>16</v>
+      <c r="H45">
+        <v>36.4</v>
       </c>
       <c r="I45">
-        <v>36.4</v>
+        <v>0.6</v>
       </c>
       <c r="J45">
-        <v>0.6</v>
-      </c>
-      <c r="K45">
         <v>10505249</v>
       </c>
-      <c r="L45" t="s">
-        <v>61</v>
-      </c>
-      <c r="R45" s="6"/>
-      <c r="T45" s="7"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K45" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q45" s="6"/>
+      <c r="S45" s="7"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>19</v>
@@ -2703,36 +2695,36 @@
       <c r="D46">
         <v>4040</v>
       </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
       <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" t="s">
         <v>15</v>
       </c>
-      <c r="H46" t="s">
-        <v>16</v>
+      <c r="H46">
+        <v>12.9</v>
       </c>
       <c r="I46">
-        <v>12.9</v>
+        <v>1.8</v>
       </c>
       <c r="J46">
-        <v>1.8</v>
-      </c>
-      <c r="K46">
         <v>6268198</v>
       </c>
-      <c r="L46" t="s">
-        <v>62</v>
-      </c>
-      <c r="R46" s="6"/>
-      <c r="T46" s="7"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K46" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q46" s="6"/>
+      <c r="S46" s="7"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2740,36 +2732,36 @@
       <c r="D47">
         <v>4040</v>
       </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
       <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
       </c>
-      <c r="H47" t="s">
-        <v>16</v>
+      <c r="H47">
+        <v>1.72</v>
       </c>
       <c r="I47">
-        <v>1.72</v>
+        <v>2.4</v>
       </c>
       <c r="J47">
-        <v>2.4</v>
-      </c>
-      <c r="K47">
         <v>15624574</v>
       </c>
-      <c r="L47" t="s">
-        <v>63</v>
-      </c>
-      <c r="R47" s="6"/>
-      <c r="T47" s="7"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K47" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q47" s="6"/>
+      <c r="S47" s="7"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -2777,36 +2769,36 @@
       <c r="D48">
         <v>4040</v>
       </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
       <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
       </c>
-      <c r="H48" t="s">
-        <v>16</v>
+      <c r="H48">
+        <v>2.78</v>
       </c>
       <c r="I48">
-        <v>2.78</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J48">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="K48">
         <v>8024782</v>
       </c>
-      <c r="L48" t="s">
-        <v>64</v>
-      </c>
-      <c r="R48" s="6"/>
-      <c r="T48" s="7"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K48" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q48" s="6"/>
+      <c r="S48" s="7"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>22</v>
@@ -2814,36 +2806,36 @@
       <c r="D49">
         <v>4040</v>
       </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
       <c r="F49" t="s">
         <v>14</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
       </c>
-      <c r="H49" t="s">
-        <v>16</v>
+      <c r="H49">
+        <v>1.02</v>
       </c>
       <c r="I49">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="J49">
-        <v>3.1</v>
-      </c>
-      <c r="K49">
         <v>7189355</v>
       </c>
-      <c r="L49" t="s">
-        <v>65</v>
-      </c>
-      <c r="R49" s="6"/>
-      <c r="T49" s="7"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K49" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q49" s="6"/>
+      <c r="S49" s="7"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C50">
         <v>23</v>
@@ -2851,36 +2843,36 @@
       <c r="D50">
         <v>4040</v>
       </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
       <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
       </c>
-      <c r="H50" t="s">
-        <v>16</v>
+      <c r="H50">
+        <v>0.34300000000000003</v>
       </c>
       <c r="I50">
-        <v>0.34300000000000003</v>
+        <v>1.8</v>
       </c>
       <c r="J50">
-        <v>1.8</v>
-      </c>
-      <c r="K50">
         <v>7583022</v>
       </c>
-      <c r="L50" t="s">
-        <v>66</v>
-      </c>
-      <c r="R50" s="6"/>
-      <c r="T50" s="7"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="K50" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q50" s="6"/>
+      <c r="S50" s="7"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -2888,37 +2880,37 @@
       <c r="D51">
         <v>4040</v>
       </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
       <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
       </c>
-      <c r="H51" t="s">
-        <v>16</v>
+      <c r="H51">
+        <v>2.19</v>
       </c>
       <c r="I51">
-        <v>2.19</v>
+        <v>5.4</v>
       </c>
       <c r="J51">
-        <v>5.4</v>
-      </c>
-      <c r="K51">
         <v>6407970</v>
       </c>
-      <c r="L51" t="s">
-        <v>67</v>
-      </c>
+      <c r="K51" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="7"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S51" s="7"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2926,37 +2918,37 @@
       <c r="D52">
         <v>4040</v>
       </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
       <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
       </c>
-      <c r="H52" t="s">
-        <v>16</v>
+      <c r="H52">
+        <v>39</v>
       </c>
       <c r="I52">
-        <v>39</v>
+        <v>0.6</v>
       </c>
       <c r="J52">
-        <v>0.6</v>
-      </c>
-      <c r="K52">
         <v>12530237</v>
       </c>
-      <c r="L52" t="s">
-        <v>68</v>
-      </c>
+      <c r="K52" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="7"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S52" s="7"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -2964,37 +2956,37 @@
       <c r="D53">
         <v>4040</v>
       </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
       </c>
-      <c r="H53" t="s">
-        <v>16</v>
+      <c r="H53">
+        <v>1.47</v>
       </c>
       <c r="I53">
-        <v>1.47</v>
+        <v>7.9</v>
       </c>
       <c r="J53">
-        <v>7.9</v>
-      </c>
-      <c r="K53">
         <v>6834266</v>
       </c>
-      <c r="L53" t="s">
-        <v>69</v>
-      </c>
+      <c r="K53" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="7"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S53" s="7"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>27</v>
@@ -3002,37 +2994,37 @@
       <c r="D54">
         <v>4040</v>
       </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
       <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
       </c>
-      <c r="H54" t="s">
-        <v>16</v>
+      <c r="H54">
+        <v>0.35599999999999998</v>
       </c>
       <c r="I54">
-        <v>0.35599999999999998</v>
+        <v>5</v>
       </c>
       <c r="J54">
-        <v>5</v>
-      </c>
-      <c r="K54">
         <v>5100647</v>
       </c>
-      <c r="L54" t="s">
-        <v>70</v>
-      </c>
+      <c r="K54" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="7"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S54" s="7"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>28</v>
@@ -3040,37 +3032,37 @@
       <c r="D55">
         <v>4040</v>
       </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
       <c r="F55" t="s">
         <v>14</v>
       </c>
       <c r="G55" t="s">
         <v>15</v>
       </c>
-      <c r="H55" t="s">
-        <v>16</v>
+      <c r="H55">
+        <v>0.17199999999999999</v>
       </c>
       <c r="I55">
-        <v>0.17199999999999999</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>5</v>
-      </c>
-      <c r="K55">
         <v>1016511</v>
       </c>
-      <c r="L55" t="s">
-        <v>71</v>
-      </c>
+      <c r="K55" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="7"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S55" s="7"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <v>29</v>
@@ -3078,37 +3070,37 @@
       <c r="D56">
         <v>4040</v>
       </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
       <c r="F56" t="s">
         <v>14</v>
       </c>
       <c r="G56" t="s">
         <v>15</v>
       </c>
-      <c r="H56" t="s">
-        <v>16</v>
+      <c r="H56">
+        <v>0.27800000000000002</v>
       </c>
       <c r="I56">
-        <v>0.27800000000000002</v>
+        <v>5</v>
       </c>
       <c r="J56">
-        <v>5</v>
-      </c>
-      <c r="K56">
         <v>4416700</v>
       </c>
-      <c r="L56" t="s">
-        <v>72</v>
-      </c>
+      <c r="K56" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="7"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S56" s="7"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57">
         <v>30</v>
@@ -3116,37 +3108,37 @@
       <c r="D57">
         <v>4040</v>
       </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
       <c r="F57" t="s">
         <v>14</v>
       </c>
       <c r="G57" t="s">
         <v>15</v>
       </c>
-      <c r="H57" t="s">
-        <v>16</v>
+      <c r="H57">
+        <v>0.54500000000000004</v>
       </c>
       <c r="I57">
-        <v>0.54500000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="J57">
-        <v>2.5</v>
-      </c>
-      <c r="K57">
         <v>14197993</v>
       </c>
-      <c r="L57" t="s">
-        <v>73</v>
-      </c>
+      <c r="K57" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="7"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S57" s="7"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>31</v>
@@ -3154,37 +3146,37 @@
       <c r="D58">
         <v>4040</v>
       </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
       <c r="F58" t="s">
         <v>14</v>
       </c>
       <c r="G58" t="s">
         <v>15</v>
       </c>
-      <c r="H58" t="s">
-        <v>16</v>
+      <c r="H58">
+        <v>3.09</v>
       </c>
       <c r="I58">
-        <v>3.09</v>
+        <v>1.5</v>
       </c>
       <c r="J58">
-        <v>1.5</v>
-      </c>
-      <c r="K58">
         <v>9590075</v>
       </c>
-      <c r="L58" t="s">
-        <v>74</v>
-      </c>
+      <c r="K58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="7"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S58" s="7"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>33</v>
@@ -3192,34 +3184,34 @@
       <c r="D59">
         <v>4040</v>
       </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
       <c r="F59" t="s">
         <v>14</v>
       </c>
       <c r="G59" t="s">
         <v>15</v>
       </c>
-      <c r="H59" t="s">
-        <v>16</v>
+      <c r="H59">
+        <v>1.21</v>
       </c>
       <c r="I59">
-        <v>1.21</v>
-      </c>
-      <c r="J59">
         <v>3.3</v>
       </c>
-      <c r="L59" t="s">
-        <v>75</v>
-      </c>
+      <c r="K59" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="7"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S59" s="7"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60">
         <v>34</v>
@@ -3227,37 +3219,37 @@
       <c r="D60">
         <v>4040</v>
       </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
       <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="G60" t="s">
         <v>15</v>
       </c>
-      <c r="H60" t="s">
-        <v>16</v>
+      <c r="H60">
+        <v>1.54</v>
       </c>
       <c r="I60">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="J60">
-        <v>1.3</v>
-      </c>
-      <c r="K60">
         <v>8620518</v>
       </c>
-      <c r="L60" t="s">
-        <v>76</v>
-      </c>
+      <c r="K60" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="7"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S60" s="7"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C61">
         <v>35</v>
@@ -3265,37 +3257,37 @@
       <c r="D61">
         <v>4040</v>
       </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
       <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61" t="s">
         <v>15</v>
       </c>
-      <c r="H61" t="s">
-        <v>16</v>
+      <c r="H61">
+        <v>0.41</v>
       </c>
       <c r="I61">
-        <v>0.41</v>
+        <v>5</v>
       </c>
       <c r="J61">
-        <v>5</v>
-      </c>
-      <c r="K61">
         <v>11521939</v>
       </c>
-      <c r="L61" t="s">
-        <v>77</v>
-      </c>
+      <c r="K61" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="7"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S61" s="7"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C62">
         <v>36</v>
@@ -3303,37 +3295,37 @@
       <c r="D62">
         <v>4040</v>
       </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
       <c r="F62" t="s">
         <v>14</v>
       </c>
       <c r="G62" t="s">
         <v>15</v>
       </c>
-      <c r="H62" t="s">
-        <v>16</v>
+      <c r="H62">
+        <v>0.45</v>
       </c>
       <c r="I62">
-        <v>0.45</v>
+        <v>5</v>
       </c>
       <c r="J62">
-        <v>5</v>
-      </c>
-      <c r="K62">
         <v>325607</v>
       </c>
-      <c r="L62" t="s">
-        <v>78</v>
-      </c>
+      <c r="K62" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="7"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S62" s="7"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C63">
         <v>37</v>
@@ -3341,26 +3333,26 @@
       <c r="D63">
         <v>4040</v>
       </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
       <c r="F63" t="s">
         <v>14</v>
       </c>
       <c r="G63" t="s">
         <v>15</v>
       </c>
-      <c r="H63" t="s">
-        <v>16</v>
+      <c r="H63">
+        <v>0.56399999999999995</v>
       </c>
       <c r="I63">
-        <v>0.56399999999999995</v>
+        <v>5</v>
       </c>
       <c r="J63">
-        <v>5</v>
-      </c>
-      <c r="K63">
         <v>958111</v>
       </c>
-      <c r="L63" t="s">
-        <v>79</v>
+      <c r="K63" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B9CDE5-7808-2C42-96E5-1114CAC2E289}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01686DB-A22A-4A48-84BD-2C93CE3CC47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>fastqFileName</t>
   </si>
   <si>
-    <t>08.29.19</t>
-  </si>
-  <si>
     <t>H.BROWN</t>
   </si>
   <si>
@@ -262,6 +259,9 @@
   </si>
   <si>
     <t>Brent_small_2b-21_GTAC_37_TTTTGTC_unknown_SIC10_GCTTCTGT_S37_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>08.15.19</t>
   </si>
 </sst>
 </file>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -726,10 +726,10 @@
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>4040</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>34.799999999999997</v>
@@ -756,7 +756,7 @@
         <v>5345784</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -775,10 +775,10 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -787,13 +787,13 @@
         <v>4040</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>24.5</v>
@@ -805,7 +805,7 @@
         <v>7714663</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -824,10 +824,10 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -836,13 +836,13 @@
         <v>4040</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>4.84</v>
@@ -854,7 +854,7 @@
         <v>7046644</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -873,10 +873,10 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -885,13 +885,13 @@
         <v>4040</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>2.66</v>
@@ -903,7 +903,7 @@
         <v>7034731</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -922,10 +922,10 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -934,13 +934,13 @@
         <v>4040</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>10.6</v>
@@ -952,7 +952,7 @@
         <v>7825166</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -971,10 +971,10 @@
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -983,13 +983,13 @@
         <v>4040</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7">
         <v>3.86</v>
@@ -1001,7 +1001,7 @@
         <v>6552879</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1032,13 +1032,13 @@
         <v>4040</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8">
         <v>0.77100000000000002</v>
@@ -1050,7 +1050,7 @@
         <v>2053073</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1081,13 +1081,13 @@
         <v>4040</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>0.72899999999999998</v>
@@ -1099,7 +1099,7 @@
         <v>1937568</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1118,10 +1118,10 @@
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1130,13 +1130,13 @@
         <v>4040</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>39.200000000000003</v>
@@ -1148,7 +1148,7 @@
         <v>6561841</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1167,10 +1167,10 @@
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1179,13 +1179,13 @@
         <v>4040</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H11">
         <v>47</v>
@@ -1197,7 +1197,7 @@
         <v>7328354</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1216,10 +1216,10 @@
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1228,13 +1228,13 @@
         <v>4040</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H12">
         <v>1.71</v>
@@ -1246,7 +1246,7 @@
         <v>12195819</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1276,13 +1276,13 @@
         <v>4040</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H13">
         <v>14.2</v>
@@ -1294,7 +1294,7 @@
         <v>6692100</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1324,13 +1324,13 @@
         <v>4040</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>2.38</v>
@@ -1342,7 +1342,7 @@
         <v>7378046</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1360,10 +1360,10 @@
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1372,13 +1372,13 @@
         <v>4040</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15">
         <v>4.09</v>
@@ -1390,7 +1390,7 @@
         <v>5666315</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1408,10 +1408,10 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1420,13 +1420,13 @@
         <v>4040</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16">
         <v>9.99</v>
@@ -1438,7 +1438,7 @@
         <v>8338282</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1456,10 +1456,10 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1468,13 +1468,13 @@
         <v>4040</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17">
         <v>25.4</v>
@@ -1486,7 +1486,7 @@
         <v>6956488</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1504,10 +1504,10 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1516,13 +1516,13 @@
         <v>4040</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>17</v>
@@ -1534,7 +1534,7 @@
         <v>7228252</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1552,10 +1552,10 @@
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1564,13 +1564,13 @@
         <v>4040</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19">
         <v>4.1500000000000004</v>
@@ -1582,7 +1582,7 @@
         <v>7816199</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1612,13 +1612,13 @@
         <v>4040</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H20">
         <v>21.3</v>
@@ -1630,7 +1630,7 @@
         <v>2592012</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1660,13 +1660,13 @@
         <v>4040</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H21">
         <v>17.899999999999999</v>
@@ -1678,7 +1678,7 @@
         <v>871010</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1709,13 +1709,13 @@
         <v>4040</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H22">
         <v>4.3899999999999997</v>
@@ -1727,7 +1727,7 @@
         <v>1427380</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1746,10 +1746,10 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1758,13 +1758,13 @@
         <v>4040</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23">
         <v>0.52100000000000002</v>
@@ -1776,7 +1776,7 @@
         <v>2630938</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1795,10 +1795,10 @@
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1807,13 +1807,13 @@
         <v>4040</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24">
         <v>0.93799999999999994</v>
@@ -1825,7 +1825,7 @@
         <v>2737460</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1844,10 +1844,10 @@
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1856,13 +1856,13 @@
         <v>4040</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25">
         <v>0.40400000000000003</v>
@@ -1874,7 +1874,7 @@
         <v>4452957</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1905,13 +1905,13 @@
         <v>4040</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>0.51700000000000002</v>
@@ -1923,7 +1923,7 @@
         <v>9586974</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1942,10 +1942,10 @@
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1954,13 +1954,13 @@
         <v>4040</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H27">
         <v>0.63200000000000001</v>
@@ -1972,7 +1972,7 @@
         <v>6720579</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1991,10 +1991,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2003,13 +2003,13 @@
         <v>4040</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" s="9">
         <v>14.2</v>
@@ -2021,7 +2021,7 @@
         <v>7448483</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2052,13 +2052,13 @@
         <v>4040</v>
       </c>
       <c r="E29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H29">
         <v>6.11</v>
@@ -2070,7 +2070,7 @@
         <v>7223071</v>
       </c>
       <c r="K29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -2090,13 +2090,13 @@
         <v>4040</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H30">
         <v>98.4</v>
@@ -2108,7 +2108,7 @@
         <v>7629664</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
@@ -2116,10 +2116,10 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -2128,13 +2128,13 @@
         <v>4040</v>
       </c>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H31">
         <v>52.7</v>
@@ -2146,7 +2146,7 @@
         <v>7685812</v>
       </c>
       <c r="K31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -2166,13 +2166,13 @@
         <v>4040</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H32">
         <v>72.599999999999994</v>
@@ -2184,7 +2184,7 @@
         <v>13242118</v>
       </c>
       <c r="K32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -2204,13 +2204,13 @@
         <v>4040</v>
       </c>
       <c r="E33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H33">
         <v>74.5</v>
@@ -2222,7 +2222,7 @@
         <v>9343472</v>
       </c>
       <c r="K33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
@@ -2230,10 +2230,10 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -2242,13 +2242,13 @@
         <v>4040</v>
       </c>
       <c r="E34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H34">
         <v>0.53600000000000003</v>
@@ -2260,7 +2260,7 @@
         <v>6624316</v>
       </c>
       <c r="K34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
@@ -2268,10 +2268,10 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>8</v>
@@ -2280,13 +2280,13 @@
         <v>4040</v>
       </c>
       <c r="E35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35">
         <v>32.6</v>
@@ -2298,7 +2298,7 @@
         <v>7561417</v>
       </c>
       <c r="K35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
@@ -2306,10 +2306,10 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>9</v>
@@ -2318,13 +2318,13 @@
         <v>4040</v>
       </c>
       <c r="E36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H36">
         <v>119</v>
@@ -2336,7 +2336,7 @@
         <v>6870088</v>
       </c>
       <c r="K36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
@@ -2344,10 +2344,10 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -2356,13 +2356,13 @@
         <v>4040</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H37">
         <v>64.7</v>
@@ -2374,7 +2374,7 @@
         <v>7662319</v>
       </c>
       <c r="K37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -2394,13 +2394,13 @@
         <v>4040</v>
       </c>
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H38">
         <v>62.4</v>
@@ -2412,7 +2412,7 @@
         <v>7439482</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
@@ -2420,10 +2420,10 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -2432,13 +2432,13 @@
         <v>4040</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39">
         <v>118</v>
@@ -2450,7 +2450,7 @@
         <v>10101552</v>
       </c>
       <c r="K39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
@@ -2458,10 +2458,10 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -2470,13 +2470,13 @@
         <v>4040</v>
       </c>
       <c r="E40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H40">
         <v>2.94</v>
@@ -2488,7 +2488,7 @@
         <v>6505388</v>
       </c>
       <c r="K40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
@@ -2496,10 +2496,10 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C41">
         <v>14</v>
@@ -2508,13 +2508,13 @@
         <v>4040</v>
       </c>
       <c r="E41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H41">
         <v>5.9</v>
@@ -2526,7 +2526,7 @@
         <v>7647217</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
@@ -2534,10 +2534,10 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -2546,13 +2546,13 @@
         <v>4040</v>
       </c>
       <c r="E42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H42">
         <v>30.6</v>
@@ -2564,7 +2564,7 @@
         <v>10053278</v>
       </c>
       <c r="K42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
@@ -2572,10 +2572,10 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43">
         <v>16</v>
@@ -2584,13 +2584,13 @@
         <v>4040</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H43">
         <v>33.200000000000003</v>
@@ -2602,7 +2602,7 @@
         <v>11103378</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>17</v>
@@ -2622,13 +2622,13 @@
         <v>4040</v>
       </c>
       <c r="E44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H44">
         <v>15.2</v>
@@ -2640,17 +2640,17 @@
         <v>11065929</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q44" s="6"/>
       <c r="S44" s="7"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>18</v>
@@ -2659,13 +2659,13 @@
         <v>4040</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H45">
         <v>36.4</v>
@@ -2677,17 +2677,17 @@
         <v>10505249</v>
       </c>
       <c r="K45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q45" s="6"/>
       <c r="S45" s="7"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>19</v>
@@ -2696,13 +2696,13 @@
         <v>4040</v>
       </c>
       <c r="E46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H46">
         <v>12.9</v>
@@ -2714,17 +2714,17 @@
         <v>6268198</v>
       </c>
       <c r="K46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q46" s="6"/>
       <c r="S46" s="7"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -2733,13 +2733,13 @@
         <v>4040</v>
       </c>
       <c r="E47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H47">
         <v>1.72</v>
@@ -2751,17 +2751,17 @@
         <v>15624574</v>
       </c>
       <c r="K47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="S47" s="7"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>21</v>
@@ -2770,13 +2770,13 @@
         <v>4040</v>
       </c>
       <c r="E48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H48">
         <v>2.78</v>
@@ -2788,17 +2788,17 @@
         <v>8024782</v>
       </c>
       <c r="K48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="S48" s="7"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>22</v>
@@ -2807,13 +2807,13 @@
         <v>4040</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H49">
         <v>1.02</v>
@@ -2825,17 +2825,17 @@
         <v>7189355</v>
       </c>
       <c r="K49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="S49" s="7"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>23</v>
@@ -2844,13 +2844,13 @@
         <v>4040</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H50">
         <v>0.34300000000000003</v>
@@ -2862,17 +2862,17 @@
         <v>7583022</v>
       </c>
       <c r="K50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="S50" s="7"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>24</v>
@@ -2881,13 +2881,13 @@
         <v>4040</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H51">
         <v>2.19</v>
@@ -2899,7 +2899,7 @@
         <v>6407970</v>
       </c>
       <c r="K51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
@@ -2907,10 +2907,10 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>25</v>
@@ -2919,13 +2919,13 @@
         <v>4040</v>
       </c>
       <c r="E52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H52">
         <v>39</v>
@@ -2937,7 +2937,7 @@
         <v>12530237</v>
       </c>
       <c r="K52" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>26</v>
@@ -2957,13 +2957,13 @@
         <v>4040</v>
       </c>
       <c r="E53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H53">
         <v>1.47</v>
@@ -2975,7 +2975,7 @@
         <v>6834266</v>
       </c>
       <c r="K53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
@@ -2983,10 +2983,10 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>27</v>
@@ -2995,13 +2995,13 @@
         <v>4040</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H54">
         <v>0.35599999999999998</v>
@@ -3013,7 +3013,7 @@
         <v>5100647</v>
       </c>
       <c r="K54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
@@ -3021,10 +3021,10 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>28</v>
@@ -3033,13 +3033,13 @@
         <v>4040</v>
       </c>
       <c r="E55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H55">
         <v>0.17199999999999999</v>
@@ -3051,7 +3051,7 @@
         <v>1016511</v>
       </c>
       <c r="K55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>29</v>
@@ -3071,13 +3071,13 @@
         <v>4040</v>
       </c>
       <c r="E56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H56">
         <v>0.27800000000000002</v>
@@ -3089,7 +3089,7 @@
         <v>4416700</v>
       </c>
       <c r="K56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>30</v>
@@ -3109,13 +3109,13 @@
         <v>4040</v>
       </c>
       <c r="E57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H57">
         <v>0.54500000000000004</v>
@@ -3127,7 +3127,7 @@
         <v>14197993</v>
       </c>
       <c r="K57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q57" s="6"/>
       <c r="R57" s="6"/>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58">
         <v>31</v>
@@ -3147,13 +3147,13 @@
         <v>4040</v>
       </c>
       <c r="E58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H58">
         <v>3.09</v>
@@ -3165,7 +3165,7 @@
         <v>9590075</v>
       </c>
       <c r="K58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q58" s="6"/>
       <c r="R58" s="6"/>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>33</v>
@@ -3185,13 +3185,13 @@
         <v>4040</v>
       </c>
       <c r="E59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H59">
         <v>1.21</v>
@@ -3200,7 +3200,7 @@
         <v>3.3</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q59" s="6"/>
       <c r="R59" s="6"/>
@@ -3208,10 +3208,10 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <v>34</v>
@@ -3220,13 +3220,13 @@
         <v>4040</v>
       </c>
       <c r="E60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H60">
         <v>1.54</v>
@@ -3238,7 +3238,7 @@
         <v>8620518</v>
       </c>
       <c r="K60" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q60" s="6"/>
       <c r="R60" s="6"/>
@@ -3246,10 +3246,10 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>35</v>
@@ -3258,13 +3258,13 @@
         <v>4040</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H61">
         <v>0.41</v>
@@ -3276,7 +3276,7 @@
         <v>11521939</v>
       </c>
       <c r="K61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q61" s="6"/>
       <c r="R61" s="6"/>
@@ -3284,10 +3284,10 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C62">
         <v>36</v>
@@ -3296,13 +3296,13 @@
         <v>4040</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H62">
         <v>0.45</v>
@@ -3314,7 +3314,7 @@
         <v>325607</v>
       </c>
       <c r="K62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q62" s="6"/>
       <c r="R62" s="6"/>
@@ -3322,10 +3322,10 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C63">
         <v>37</v>
@@ -3334,13 +3334,13 @@
         <v>4040</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H63">
         <v>0.56399999999999995</v>
@@ -3352,7 +3352,7 @@
         <v>958111</v>
       </c>
       <c r="K63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
+++ b/fastqFiles/fastq_fullrun_hbrown_11.25.19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01686DB-A22A-4A48-84BD-2C93CE3CC47A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A067019-48E7-6D41-8D63-C801F4952A8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25100" windowHeight="18920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -665,7 +665,7 @@
   <dimension ref="A1:Y63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
